--- a/biology/Mycologie/Veau_Orloff/Veau_Orloff.xlsx
+++ b/biology/Mycologie/Veau_Orloff/Veau_Orloff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le veau Orloff  est un plat de viande de veau en sauce, qui appartient à la gastronomie française
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plat original fut élaboré au XIXe siècle par le cuisinier français Urbain Dubois, au service du prince Alexeï Fiodorovitch Orlov, ambassadeur de Russie en France.
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le veau Orloff est composé d'un rôti de veau préalablement cuit et découpé en tranches que l'on tartine d'un roux mélangé à de la purée d'oignons et des champignons hachés. Le tout est recouvert de la même sauce (ou d'une sauce Mornay) et réchauffé au four[réf. nécessaire].
 </t>
@@ -573,7 +589,9 @@
           <t>Variantes modernes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe des recettes françaises modernes de « veau Orloff » comportant des tranches de lard et de fromage intercalées entre les tranches. Ces recettes sont très éloignées de la recette originale, qui ne comporte pas de fromage.
 D'autres recettes appartenant à la cuisine russe courante appellent « viande à la française » des plats gratinés au four composés de morceaux de viande, oignons, champignons, pommes de terre, avec de la crème aigre ou de la béchamel.
